--- a/tables/ancova_statistics.xlsx
+++ b/tables/ancova_statistics.xlsx
@@ -425,7 +425,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1.41</v>
+        <v>1.34</v>
       </c>
       <c r="D2"/>
       <c r="E2"/>
@@ -433,16 +433,16 @@
       <c r="G2"/>
       <c r="H2"/>
       <c r="I2" t="n">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="J2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K2" t="n">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="L2" t="n">
-        <v>54</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3">
@@ -454,23 +454,23 @@
       </c>
       <c r="C3"/>
       <c r="D3" t="n">
-        <v>0.0683</v>
+        <v>0.0172</v>
       </c>
       <c r="E3"/>
       <c r="F3"/>
       <c r="G3"/>
       <c r="H3"/>
       <c r="I3" t="n">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="J3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K3" t="n">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="L3" t="n">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4">
@@ -483,22 +483,22 @@
       <c r="C4"/>
       <c r="D4"/>
       <c r="E4" t="n">
-        <v>0.69</v>
+        <v>1.12</v>
       </c>
       <c r="F4"/>
       <c r="G4"/>
       <c r="H4"/>
       <c r="I4" t="n">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="J4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K4" t="n">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="L4" t="n">
-        <v>19</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5">
@@ -512,21 +512,21 @@
       <c r="D5"/>
       <c r="E5"/>
       <c r="F5" t="n">
-        <v>0.00808</v>
+        <v>0.00958</v>
       </c>
       <c r="G5"/>
       <c r="H5"/>
       <c r="I5" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K5" t="n">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="L5" t="n">
-        <v>25</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6">
@@ -541,20 +541,20 @@
       <c r="E6"/>
       <c r="F6"/>
       <c r="G6" t="n">
-        <v>0.609</v>
+        <v>0.821</v>
       </c>
       <c r="H6"/>
       <c r="I6" t="n">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="J6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K6" t="n">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="L6" t="n">
-        <v>61</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7">
@@ -570,19 +570,19 @@
       <c r="F7"/>
       <c r="G7"/>
       <c r="H7" t="n">
-        <v>0.591</v>
+        <v>0.431</v>
       </c>
       <c r="I7" t="n">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="J7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="L7" t="n">
-        <v>82</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/tables/ancova_statistics.xlsx
+++ b/tables/ancova_statistics.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t xml:space="preserve">all_info_expected</t>
   </si>
@@ -20,6 +20,12 @@
     <t xml:space="preserve">study_id</t>
   </si>
   <si>
+    <t xml:space="preserve">natural_es</t>
+  </si>
+  <si>
+    <t xml:space="preserve">converted_es</t>
+  </si>
+  <si>
     <t xml:space="preserve">ancova_t</t>
   </si>
   <si>
@@ -32,9 +38,6 @@
     <t xml:space="preserve">ancova_f_pval</t>
   </si>
   <si>
-    <t xml:space="preserve">cohen_d_adj</t>
-  </si>
-  <si>
     <t xml:space="preserve">etasq_adj</t>
   </si>
   <si>
@@ -48,6 +51,12 @@
   </si>
   <si>
     <t xml:space="preserve">n_nexp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D+G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OR+R+Z</t>
   </si>
 </sst>
 </file>
@@ -416,173 +425,173 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
-      <c r="C2" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="D2"/>
-      <c r="E2"/>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.6</v>
+      </c>
       <c r="F2"/>
       <c r="G2"/>
       <c r="H2"/>
-      <c r="I2" t="n">
-        <v>0.1</v>
-      </c>
+      <c r="I2"/>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="K2" t="n">
-        <v>85</v>
+        <v>4</v>
       </c>
       <c r="L2" t="n">
-        <v>78</v>
+        <v>86</v>
+      </c>
+      <c r="M2" t="n">
+        <v>91</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
       </c>
-      <c r="C3"/>
-      <c r="D3" t="n">
-        <v>0.0172</v>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
       </c>
       <c r="E3"/>
-      <c r="F3"/>
+      <c r="F3" t="n">
+        <v>0.0499</v>
+      </c>
       <c r="G3"/>
       <c r="H3"/>
-      <c r="I3" t="n">
-        <v>0.15</v>
-      </c>
+      <c r="I3"/>
       <c r="J3" t="n">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="K3" t="n">
-        <v>90</v>
+        <v>1</v>
       </c>
       <c r="L3" t="n">
-        <v>84</v>
+        <v>22</v>
+      </c>
+      <c r="M3" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
       </c>
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4" t="n">
-        <v>1.12</v>
-      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4"/>
       <c r="F4"/>
-      <c r="G4"/>
+      <c r="G4" t="n">
+        <v>1.41</v>
+      </c>
       <c r="H4"/>
-      <c r="I4" t="n">
+      <c r="I4"/>
+      <c r="J4" t="n">
         <v>0.15</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>2</v>
       </c>
-      <c r="K4" t="n">
-        <v>71</v>
-      </c>
       <c r="L4" t="n">
-        <v>62</v>
+        <v>47</v>
+      </c>
+      <c r="M4" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
       </c>
-      <c r="C5"/>
-      <c r="D5"/>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
       <c r="E5"/>
-      <c r="F5" t="n">
-        <v>0.00958</v>
-      </c>
+      <c r="F5"/>
       <c r="G5"/>
-      <c r="H5"/>
-      <c r="I5" t="n">
+      <c r="H5" t="n">
+        <v>0.00757</v>
+      </c>
+      <c r="I5"/>
+      <c r="J5" t="n">
         <v>0.3</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
         <v>5</v>
       </c>
-      <c r="K5" t="n">
-        <v>43</v>
-      </c>
       <c r="L5" t="n">
-        <v>39</v>
+        <v>57</v>
+      </c>
+      <c r="M5" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="n">
         <v>6</v>
       </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6"/>
-      <c r="D6"/>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
       <c r="E6"/>
       <c r="F6"/>
-      <c r="G6" t="n">
-        <v>0.821</v>
-      </c>
+      <c r="G6"/>
       <c r="H6"/>
       <c r="I6" t="n">
+        <v>0.649</v>
+      </c>
+      <c r="J6" t="n">
         <v>0.25</v>
       </c>
-      <c r="J6" t="n">
+      <c r="K6" t="n">
         <v>4</v>
       </c>
-      <c r="K6" t="n">
-        <v>90</v>
-      </c>
       <c r="L6" t="n">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="n">
-        <v>6</v>
-      </c>
-      <c r="C7"/>
-      <c r="D7"/>
-      <c r="E7"/>
-      <c r="F7"/>
-      <c r="G7"/>
-      <c r="H7" t="n">
-        <v>0.431</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" t="n">
-        <v>58</v>
-      </c>
-      <c r="L7" t="n">
-        <v>53</v>
+        <v>80</v>
+      </c>
+      <c r="M6" t="n">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/tables/ancova_statistics.xlsx
+++ b/tables/ancova_statistics.xlsx
@@ -443,23 +443,23 @@
         <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>1.6</v>
+        <v>1.89</v>
       </c>
       <c r="F2"/>
       <c r="G2"/>
       <c r="H2"/>
       <c r="I2"/>
       <c r="J2" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="K2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L2" t="n">
-        <v>86</v>
+        <v>28</v>
       </c>
       <c r="M2" t="n">
-        <v>91</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3">
@@ -477,22 +477,22 @@
       </c>
       <c r="E3"/>
       <c r="F3" t="n">
-        <v>0.0499</v>
+        <v>0.0928</v>
       </c>
       <c r="G3"/>
       <c r="H3"/>
       <c r="I3"/>
       <c r="J3" t="n">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L3" t="n">
-        <v>22</v>
+        <v>81</v>
       </c>
       <c r="M3" t="n">
-        <v>21</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4">
@@ -511,21 +511,21 @@
       <c r="E4"/>
       <c r="F4"/>
       <c r="G4" t="n">
-        <v>1.41</v>
+        <v>2.7</v>
       </c>
       <c r="H4"/>
       <c r="I4"/>
       <c r="J4" t="n">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="K4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="M4" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5">
@@ -545,20 +545,20 @@
       <c r="F5"/>
       <c r="G5"/>
       <c r="H5" t="n">
-        <v>0.00757</v>
+        <v>0.00193</v>
       </c>
       <c r="I5"/>
       <c r="J5" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="K5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L5" t="n">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="M5" t="n">
-        <v>59</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6">
@@ -579,19 +579,19 @@
       <c r="G6"/>
       <c r="H6"/>
       <c r="I6" t="n">
-        <v>0.649</v>
+        <v>0.095</v>
       </c>
       <c r="J6" t="n">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="K6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L6" t="n">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="M6" t="n">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/tables/ancova_statistics.xlsx
+++ b/tables/ancova_statistics.xlsx
@@ -443,23 +443,23 @@
         <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>1.89</v>
+        <v>3.5</v>
       </c>
       <c r="F2"/>
       <c r="G2"/>
       <c r="H2"/>
       <c r="I2"/>
       <c r="J2" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="K2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M2" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3">
@@ -477,22 +477,22 @@
       </c>
       <c r="E3"/>
       <c r="F3" t="n">
-        <v>0.0928</v>
+        <v>0.036</v>
       </c>
       <c r="G3"/>
       <c r="H3"/>
       <c r="I3"/>
       <c r="J3" t="n">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="K3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L3" t="n">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="M3" t="n">
-        <v>82</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
@@ -511,21 +511,21 @@
       <c r="E4"/>
       <c r="F4"/>
       <c r="G4" t="n">
-        <v>2.7</v>
+        <v>1.03</v>
       </c>
       <c r="H4"/>
       <c r="I4"/>
       <c r="J4" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4" t="n">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="M4" t="n">
-        <v>38</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5">
@@ -545,20 +545,20 @@
       <c r="F5"/>
       <c r="G5"/>
       <c r="H5" t="n">
-        <v>0.00193</v>
+        <v>0.00804</v>
       </c>
       <c r="I5"/>
       <c r="J5" t="n">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="K5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5" t="n">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="M5" t="n">
-        <v>23</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6">
@@ -579,19 +579,19 @@
       <c r="G6"/>
       <c r="H6"/>
       <c r="I6" t="n">
-        <v>0.095</v>
+        <v>0.719</v>
       </c>
       <c r="J6" t="n">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="K6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L6" t="n">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="M6" t="n">
-        <v>38</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
